--- a/Robot Registro de facturas/Config/Proveedores para exclusión y retenciones.xlsx
+++ b/Robot Registro de facturas/Config/Proveedores para exclusión y retenciones.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.52.2.47\Unacem Cuentas x Pagar\CTAS X PAGAR\CTAS X PAGAR SAP\REQUERIMIENTOS SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Registro de facturas\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Listado de proveedores " sheetId="1" r:id="rId1"/>
+    <sheet name="Listado de proveedores" sheetId="1" r:id="rId1"/>
     <sheet name="Retenciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de proveedores '!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Listado de proveedores'!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1796,7 +1796,7 @@
       <c r="C77" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C59"/>
+  <autoFilter ref="A1:C60"/>
   <sortState ref="A2:C67">
     <sortCondition ref="A2:A67"/>
   </sortState>
